--- a/analysis/MLLS/HSIC_new/VT=5000 init_seed=0 lambda_d=3.0e+05 lr=1.0e-02 epochs=10.xlsx
+++ b/analysis/MLLS/HSIC_new/VT=5000 init_seed=0 lambda_d=3.0e+05 lr=1.0e-02 epochs=10.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">VisProd-EM: test </t>
+          <t xml:space="preserve">VisProd+EM: test </t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VisProd+unseen-EM: test </t>
         </is>
       </c>
     </row>
@@ -482,6 +487,9 @@
       <c r="F2" t="n">
         <v>0.7385922330097088</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.8152912621359223</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +510,9 @@
       <c r="F3" t="n">
         <v>0.5761111111111111</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.5275</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -524,6 +535,9 @@
       <c r="F4" t="n">
         <v>0.6628238341968912</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.6810880829015544</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +558,9 @@
       <c r="F5" t="n">
         <v>0.6473113404937927</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.6405554651772318</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -560,6 +577,9 @@
         <v>0.6125</v>
       </c>
       <c r="F6" t="n">
+        <v>0.5897222222222223</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.5897222222222223</v>
       </c>
     </row>
